--- a/Processing Tracker.xlsx
+++ b/Processing Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc38b22c3eb57f1/Desktop/Maintenance-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_D4A97A945B6124C9F6CFA5F734AC4A53BB6224E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A42A31AA-9912-4F3E-A05A-F8CAB7273FCF}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_D4A97A945B6124C9F6CFA5F734AC4A53BB6224E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48CD455-9CA0-4A3E-A9F4-9FC6E27A4AD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,6 +469,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1243,8 +1247,11 @@
       <c r="G20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>96555458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
